--- a/src/main/webapp/assets/templates/import-preallocations-basicZZ-template.xlsx
+++ b/src/main/webapp/assets/templates/import-preallocations-basicZZ-template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98049600-6FE2-4BD7-AE7D-7512FF9239DF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753C58AA-926A-4CF1-A8BF-6848CC66D46C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A1:AV3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H2" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -740,11 +740,7 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
+  <dataValidations count="3">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="只能输入数字" sqref="AQ1:AV1048576 AK1:AO1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
